--- a/01.Datascience/总结：Numpy.xlsx
+++ b/01.Datascience/总结：Numpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JUN data\gitee\PythonNote\Datascience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JUN_data\gitee\PythonNote\01.Datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF615C20-58A3-4662-BC9F-FD9748830068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C401623-6F46-4D00-B45C-7AE93E3ADC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="924" windowWidth="18576" windowHeight="10296" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="226">
   <si>
     <r>
       <t>np.array([</t>
@@ -1278,9 +1278,6 @@
     <t>示例</t>
   </si>
   <si>
-    <t>示例结果</t>
-  </si>
-  <si>
     <t>基本用法</t>
   </si>
   <si>
@@ -1311,18 +1308,12 @@
     <t>np.zeros(数组元素个数, dtype='类型')</t>
   </si>
   <si>
-    <t>np.zeros(10)</t>
-  </si>
-  <si>
     <t>全为1</t>
   </si>
   <si>
     <t>np.ones(数组元素个数, dtype='类型')</t>
   </si>
   <si>
-    <t>np.ones(10)</t>
-  </si>
-  <si>
     <t>ndarray属性</t>
   </si>
   <si>
@@ -1338,9 +1329,6 @@
     <t>&lt;字节序前缀&gt;&lt;维度&gt;&lt;类型&gt;&lt;字节数或字符数&gt;</t>
   </si>
   <si>
-    <t>3i4  #3个元素的一维数组，每个元素都是整型，每个整型元素占4个字节。</t>
-  </si>
-  <si>
     <t>ndarray维度操作</t>
   </si>
   <si>
@@ -1353,122 +1341,283 @@
     <t>直接改变对象维度</t>
   </si>
   <si>
+    <t>ndarray数组操作</t>
+  </si>
+  <si>
+    <t>数组元素索引(下标)</t>
+  </si>
+  <si>
+    <t>数组对象[..., 页号, 行号, 列号]</t>
+  </si>
+  <si>
+    <t>切片，多维切片</t>
+  </si>
+  <si>
+    <t>切片，...代表位置所有数组</t>
+  </si>
+  <si>
+    <t>a[..., :1]</t>
+  </si>
+  <si>
+    <t>掩码操作</t>
+  </si>
+  <si>
+    <t>mask = (a % 3 == 0)</t>
+  </si>
+  <si>
+    <t>a[mask]</t>
+  </si>
+  <si>
+    <t>矩阵的生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵间的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy杂项功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术平均数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.mean(array)</t>
+  </si>
+  <si>
+    <t>np.average(closing_prices, weights=volumes)</t>
+  </si>
+  <si>
+    <t>加权平均数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组中最大值/最小值/极差</t>
+  </si>
+  <si>
+    <t>np.argmax() mp.argmin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组中最大/最小元素的下标</t>
+  </si>
+  <si>
+    <t>np.maximum() np.minimum()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将两个同维数组中对应元素中相比更大/更小元素构成一个新的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.max()  np.min()  np.ptp()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.median(closing_prices)</t>
+  </si>
+  <si>
+    <t>np.std(closing_prices)</t>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sstd = np.std(closing_prices, ddof=1)</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).shape</t>
+  </si>
+  <si>
+    <t>(2, 3)</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).size</t>
+  </si>
+  <si>
+    <t>np.ndarray.size</t>
+  </si>
+  <si>
+    <t>np.ndarray.ndim</t>
+  </si>
+  <si>
+    <t>np.ndarray.itemsize</t>
+  </si>
+  <si>
+    <t>np.ndarray.nbytes</t>
+  </si>
+  <si>
+    <t>np.ndarray.real</t>
+  </si>
+  <si>
+    <t>np.ndarray.imag</t>
+  </si>
+  <si>
+    <t>np.ndarray.T</t>
+  </si>
+  <si>
+    <t>np.ndarray.flat</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;numpy.flatiter object at 0x0000027B5A078AB0&gt;</t>
+  </si>
+  <si>
+    <t>[[1 2 3]  [4 5 6]]</t>
+  </si>
+  <si>
+    <t>[[0 0 0]  [0 0 0]]</t>
+  </si>
+  <si>
+    <t>[[1 4]  [2 5]  [3 6]]</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).ndim</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).itemsize</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).nbytes</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).real</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).imag</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).T</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).flat</t>
+  </si>
+  <si>
+    <t>dtype('int32')</t>
+  </si>
+  <si>
+    <t>np.array([[[1,1], [2,2]]]).ravel()</t>
+  </si>
+  <si>
+    <t>array([1, 1, 2, 2])</t>
+  </si>
+  <si>
+    <t>array([1, 2, 3, 4, 5, 6])</t>
+  </si>
+  <si>
+    <t>np.zeros(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ones(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array([0, 2, 4, 6, 8])</t>
+  </si>
+  <si>
+    <t>array([0., 0., 0., 0., 0.])</t>
+  </si>
+  <si>
+    <t>array([1., 1., 1., 1., 1.])</t>
+  </si>
+  <si>
+    <t>运行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array([0, 1, 2, 3, 4])</t>
+  </si>
+  <si>
     <t>a.resize(2, 2, 2)</t>
-  </si>
-  <si>
-    <t>ndarray数组操作</t>
-  </si>
-  <si>
-    <t>数组元素索引(下标)</t>
-  </si>
-  <si>
-    <t>数组对象[..., 页号, 行号, 列号]</t>
-  </si>
-  <si>
-    <t>切片，多维切片</t>
-  </si>
-  <si>
-    <t>切片，...代表位置所有数组</t>
-  </si>
-  <si>
-    <t>a[..., :1]</t>
-  </si>
-  <si>
-    <t>掩码操作</t>
-  </si>
-  <si>
-    <t>mask = (a % 3 == 0)</t>
-  </si>
-  <si>
-    <t>a[mask]</t>
-  </si>
-  <si>
-    <t>矩阵的生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵间的计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy杂项功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算术平均数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.mean(array)</t>
-  </si>
-  <si>
-    <t>np.average(closing_prices, weights=volumes)</t>
-  </si>
-  <si>
-    <t>加权平均数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一个数组中最大值/最小值/极差</t>
-  </si>
-  <si>
-    <t>np.argmax() mp.argmin()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一个数组中最大/最小元素的下标</t>
-  </si>
-  <si>
-    <t>np.maximum() np.minimum()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将两个同维数组中对应元素中相比更大/更小元素构成一个新的数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.max()  np.min()  np.ptp()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.median(closing_prices)</t>
-  </si>
-  <si>
-    <t>np.std(closing_prices)</t>
-  </si>
-  <si>
-    <t>标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sstd = np.std(closing_prices, ddof=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.arange(5).flatten()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.arange(4).reshape(2,2,1)</t>
+  </si>
+  <si>
+    <t>array([[[0],[1]],  [[2],[3]]])</t>
+  </si>
+  <si>
+    <t>#略，同reshape，不过不生成新对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]])[..., 2]</t>
+  </si>
+  <si>
+    <t>array([3, 6])</t>
+  </si>
+  <si>
+    <t>np.array([[1,3], [5,6]])%3==0</t>
+  </si>
+  <si>
+    <t>array([[False,  True],  [False,  True]])</t>
+  </si>
+  <si>
+    <t>3i4  #3个元素，一维数组，整型，每个元素占4字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.array([1,2,3])[np.array([False, True, True])]</t>
+  </si>
+  <si>
+    <t>array([2, 3])</t>
+  </si>
+  <si>
+    <t>基本方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.argsort([11,33,22,44])</t>
+  </si>
+  <si>
+    <t>array([0, 2, 1, 3], dtype=int64)</t>
+  </si>
+  <si>
+    <t>返回排序后的对应索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的基本方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1711,21 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1583,15 +1747,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1621,16 +1854,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFBFF602-590C-4C37-BEF4-EEF914545283}" name="表2" displayName="表2" ref="A1:G59" totalsRowShown="0">
-  <autoFilter ref="A1:G59" xr:uid="{B7EBB1B1-08B3-4B7D-B19E-066045715EAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFBFF602-590C-4C37-BEF4-EEF914545283}" name="表2" displayName="表2" ref="A1:G61" totalsRowShown="0">
+  <autoFilter ref="A1:G61" xr:uid="{B7EBB1B1-08B3-4B7D-B19E-066045715EAC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0304A2C7-1606-45DC-AE0D-00AFF58EF51C}" name="列1"/>
     <tableColumn id="2" xr3:uid="{03AFAEB7-F782-4FB0-A628-7D5ECDEE5405}" name="列2"/>
     <tableColumn id="3" xr3:uid="{B96887C5-B020-46C6-AAC8-B353F886985F}" name="注释"/>
     <tableColumn id="4" xr3:uid="{11F49415-CBC3-4FF5-8619-1F37D3AA5C8C}" name="注释2"/>
     <tableColumn id="5" xr3:uid="{0D4EB912-5A43-4330-A44D-20EAA4ADA7C5}" name="语法"/>
-    <tableColumn id="6" xr3:uid="{2A1F99F4-2DB8-4D86-A43F-8214A1CCA80A}" name="示例"/>
-    <tableColumn id="7" xr3:uid="{4C63C2BF-9027-4F0E-B660-282D8B12C511}" name="示例结果"/>
+    <tableColumn id="6" xr3:uid="{2A1F99F4-2DB8-4D86-A43F-8214A1CCA80A}" name="示例" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4C63C2BF-9027-4F0E-B660-282D8B12C511}" name="运行结果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2364,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F69FDC-DFF5-45B0-B2E1-F69D8838750F}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2377,8 +2610,8 @@
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.5546875" customWidth="1"/>
     <col min="5" max="5" width="43.88671875" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="50.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,95 +2633,119 @@
       <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
-        <v>123</v>
+      <c r="G1" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="G2" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
+      <c r="G3" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
+      <c r="F4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>104</v>
       </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -2497,40 +2754,103 @@
       <c r="D9" t="s">
         <v>105</v>
       </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>106</v>
       </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>107</v>
       </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="5">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>108</v>
       </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>109</v>
       </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>110</v>
       </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>111</v>
       </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -2538,53 +2858,67 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>36</v>
       </c>
@@ -2594,69 +2928,84 @@
       <c r="E23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>49</v>
       </c>
       <c r="E29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -2665,75 +3014,117 @@
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>64</v>
       </c>
       <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E36" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>150</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="F37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>79</v>
       </c>
@@ -2743,65 +3134,85 @@
       <c r="E39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>81</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>82</v>
       </c>
       <c r="E43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>98</v>
       </c>
       <c r="E45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>100</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -2811,95 +3222,143 @@
       <c r="E49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E55" t="s">
         <v>159</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>161</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D56" t="s">
         <v>162</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
         <v>165</v>
       </c>
-      <c r="E53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E60" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>173</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E61" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" t="s">
-        <v>179</v>
-      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:G1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK($B1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
